--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/New_Zero_Value_Count.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/New_Zero_Value_Count.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -549,6 +554,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -567,6 +575,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -585,6 +596,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -603,6 +617,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -620,6 +637,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +682,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -680,6 +705,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -698,6 +726,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -716,6 +747,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -734,6 +768,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -752,6 +789,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -770,6 +810,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -787,6 +830,9 @@
       </c>
       <c r="D8" t="n">
         <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,6 +875,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -847,6 +898,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -864,6 +918,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.11</v>
       </c>
     </row>
   </sheetData>
@@ -877,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,6 +963,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -924,6 +986,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -942,6 +1007,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -960,6 +1028,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -978,6 +1049,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -995,6 +1069,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1114,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1055,6 +1137,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1073,6 +1158,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1090,6 +1178,9 @@
       </c>
       <c r="D4" t="n">
         <v>45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,6 +1223,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1150,6 +1246,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1167,6 +1266,9 @@
       </c>
       <c r="D3" t="n">
         <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,6 +1311,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1227,6 +1334,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1245,6 +1355,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1263,6 +1376,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1281,6 +1397,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1299,6 +1418,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1316,6 +1438,9 @@
       </c>
       <c r="D7" t="n">
         <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,6 +1483,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1376,6 +1506,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1394,6 +1527,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1412,6 +1548,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1430,6 +1569,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1448,6 +1590,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1466,6 +1611,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1484,6 +1632,9 @@
       <c r="D8" t="n">
         <v>45</v>
       </c>
+      <c r="E8" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1502,6 +1653,9 @@
       <c r="D9" t="n">
         <v>45</v>
       </c>
+      <c r="E9" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1520,6 +1674,9 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1538,6 +1695,9 @@
       <c r="D11" t="n">
         <v>20</v>
       </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1556,6 +1716,9 @@
       <c r="D12" t="n">
         <v>20</v>
       </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1573,6 +1736,9 @@
       </c>
       <c r="D13" t="n">
         <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,6 +1781,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1633,6 +1804,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1650,6 +1824,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,6 +1869,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1710,6 +1892,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1728,6 +1913,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1745,6 +1933,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,6 +1978,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1805,6 +2001,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1823,6 +2022,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1841,6 +2043,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1859,6 +2064,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1877,6 +2085,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1895,6 +2106,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1912,6 +2126,9 @@
       </c>
       <c r="D8" t="n">
         <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,6 +2171,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -1972,6 +2194,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1990,6 +2215,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2008,6 +2236,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2026,6 +2257,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -2044,6 +2278,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -2062,6 +2299,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2079,6 +2319,9 @@
       </c>
       <c r="D8" t="n">
         <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,6 +2364,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2138,6 +2386,9 @@
       </c>
       <c r="D2" t="n">
         <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,6 +2431,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2198,6 +2454,9 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2215,6 +2474,9 @@
       </c>
       <c r="D3" t="n">
         <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2257,6 +2519,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2275,6 +2542,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2293,6 +2563,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2311,6 +2584,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2328,6 +2604,9 @@
       </c>
       <c r="D5" t="n">
         <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2370,6 +2649,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2388,6 +2672,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2406,6 +2693,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2423,6 +2713,9 @@
       </c>
       <c r="D4" t="n">
         <v>45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75.56</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,6 +2758,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2483,6 +2781,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2501,6 +2802,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2519,6 +2823,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2537,6 +2844,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -2555,6 +2865,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -2573,6 +2886,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2591,6 +2907,9 @@
       <c r="D8" t="n">
         <v>45</v>
       </c>
+      <c r="E8" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2609,6 +2928,9 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2627,6 +2949,9 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -2644,6 +2969,9 @@
       </c>
       <c r="D11" t="n">
         <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2686,6 +3014,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2704,6 +3037,9 @@
       <c r="D2" t="n">
         <v>45</v>
       </c>
+      <c r="E2" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2721,6 +3057,9 @@
       </c>
       <c r="D3" t="n">
         <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2763,6 +3102,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2781,6 +3125,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2799,6 +3146,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2817,6 +3167,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2835,6 +3188,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -2852,6 +3208,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +3224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2894,6 +3253,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2912,6 +3276,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2929,6 +3296,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2971,6 +3341,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2989,6 +3364,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3006,6 +3384,9 @@
       </c>
       <c r="D3" t="n">
         <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3048,6 +3429,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3066,6 +3452,9 @@
       <c r="D2" t="n">
         <v>45</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3083,6 +3472,9 @@
       </c>
       <c r="D3" t="n">
         <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,6 +3517,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3143,6 +3540,9 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3161,6 +3561,9 @@
       <c r="D3" t="n">
         <v>25</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3179,6 +3582,9 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -3197,6 +3603,9 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -3215,6 +3624,9 @@
       <c r="D6" t="n">
         <v>10</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -3233,6 +3645,9 @@
       <c r="D7" t="n">
         <v>10</v>
       </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -3251,6 +3666,9 @@
       <c r="D8" t="n">
         <v>10</v>
       </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -3268,6 +3686,9 @@
       </c>
       <c r="D9" t="n">
         <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3310,6 +3731,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3328,6 +3754,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3346,6 +3775,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3364,6 +3796,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -3382,6 +3817,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -3400,6 +3838,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -3418,6 +3859,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -3436,6 +3880,9 @@
       <c r="D8" t="n">
         <v>45</v>
       </c>
+      <c r="E8" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -3454,6 +3901,9 @@
       <c r="D9" t="n">
         <v>45</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -3472,6 +3922,9 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -3490,6 +3943,9 @@
       <c r="D11" t="n">
         <v>20</v>
       </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -3508,6 +3964,9 @@
       <c r="D12" t="n">
         <v>20</v>
       </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -3525,6 +3984,9 @@
       </c>
       <c r="D13" t="n">
         <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +4000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,6 +4029,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3585,6 +4052,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3603,6 +4073,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3620,6 +4093,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +4109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3662,6 +4138,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3680,6 +4161,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3698,6 +4182,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3716,6 +4203,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -3734,6 +4224,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -3752,6 +4245,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -3769,6 +4265,9 @@
       </c>
       <c r="D7" t="n">
         <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +4281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3811,6 +4310,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3829,6 +4333,9 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3847,6 +4354,9 @@
       <c r="D3" t="n">
         <v>40</v>
       </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3865,6 +4375,9 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -3883,6 +4396,9 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -3900,6 +4416,9 @@
       </c>
       <c r="D6" t="n">
         <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +4432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3942,6 +4461,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -3960,6 +4484,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3978,6 +4505,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3996,6 +4526,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4014,6 +4547,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4031,6 +4567,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4044,7 +4583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4612,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4091,6 +4635,9 @@
       <c r="D2" t="n">
         <v>15</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4109,6 +4656,9 @@
       <c r="D3" t="n">
         <v>15</v>
       </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4127,6 +4677,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4145,6 +4698,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4163,6 +4719,9 @@
       <c r="D6" t="n">
         <v>15</v>
       </c>
+      <c r="E6" t="n">
+        <v>86.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4181,6 +4740,9 @@
       <c r="D7" t="n">
         <v>15</v>
       </c>
+      <c r="E7" t="n">
+        <v>86.67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -4198,6 +4760,9 @@
       </c>
       <c r="D8" t="n">
         <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4240,6 +4805,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4258,6 +4828,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4276,6 +4849,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4294,6 +4870,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4312,6 +4891,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4330,6 +4912,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4348,6 +4933,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -4366,6 +4954,9 @@
       <c r="D8" t="n">
         <v>45</v>
       </c>
+      <c r="E8" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -4384,6 +4975,9 @@
       <c r="D9" t="n">
         <v>45</v>
       </c>
+      <c r="E9" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -4402,6 +4996,9 @@
       <c r="D10" t="n">
         <v>45</v>
       </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -4420,6 +5017,9 @@
       <c r="D11" t="n">
         <v>20</v>
       </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -4438,6 +5038,9 @@
       <c r="D12" t="n">
         <v>20</v>
       </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -4456,6 +5059,9 @@
       <c r="D13" t="n">
         <v>20</v>
       </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -4473,6 +5079,9 @@
       </c>
       <c r="D14" t="n">
         <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4515,6 +5124,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4533,6 +5147,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4551,6 +5168,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4569,6 +5189,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4587,6 +5210,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4605,6 +5231,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4622,6 +5251,9 @@
       </c>
       <c r="D7" t="n">
         <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +5267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4664,6 +5296,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4682,6 +5319,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4700,6 +5340,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4718,6 +5361,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4736,6 +5382,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4754,6 +5403,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4771,6 +5423,9 @@
       </c>
       <c r="D7" t="n">
         <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4784,7 +5439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4813,6 +5468,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4831,6 +5491,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4849,6 +5512,9 @@
       <c r="D3" t="n">
         <v>25</v>
       </c>
+      <c r="E3" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4866,6 +5532,9 @@
       </c>
       <c r="D4" t="n">
         <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +5548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4908,6 +5577,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -4926,6 +5600,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -4944,6 +5621,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>73.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -4962,6 +5642,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -4980,6 +5663,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -4997,6 +5683,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5039,6 +5728,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5057,6 +5751,9 @@
       <c r="D2" t="n">
         <v>9</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5075,6 +5772,9 @@
       <c r="D3" t="n">
         <v>9</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5093,6 +5793,9 @@
       <c r="D4" t="n">
         <v>15</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -5111,6 +5814,9 @@
       <c r="D5" t="n">
         <v>9</v>
       </c>
+      <c r="E5" t="n">
+        <v>77.78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -5129,6 +5835,9 @@
       <c r="D6" t="n">
         <v>9</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -5147,6 +5856,9 @@
       <c r="D7" t="n">
         <v>9</v>
       </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -5165,6 +5877,9 @@
       <c r="D8" t="n">
         <v>9</v>
       </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -5183,6 +5898,9 @@
       <c r="D9" t="n">
         <v>9</v>
       </c>
+      <c r="E9" t="n">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -5200,6 +5918,9 @@
       </c>
       <c r="D10" t="n">
         <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>66.67</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5242,6 +5963,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5260,6 +5986,9 @@
       <c r="D2" t="n">
         <v>39</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5277,6 +6006,9 @@
       </c>
       <c r="D3" t="n">
         <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +6022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5319,6 +6051,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5337,6 +6074,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5355,6 +6095,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5372,6 +6115,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +6131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5414,6 +6160,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5432,6 +6183,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5450,6 +6204,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>26.67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5468,6 +6225,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -5486,6 +6246,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -5503,6 +6266,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5516,7 +6282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5545,6 +6311,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5563,6 +6334,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5580,6 +6354,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.67</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +6370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5622,6 +6399,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5640,6 +6422,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5658,6 +6443,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>73.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5676,6 +6464,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -5694,6 +6485,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -5711,6 +6505,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +6521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5753,6 +6550,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5771,6 +6573,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5789,6 +6594,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5807,6 +6615,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -5824,6 +6635,9 @@
       </c>
       <c r="D5" t="n">
         <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5866,6 +6680,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -5884,6 +6703,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -5902,6 +6724,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -5920,6 +6745,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -5938,6 +6766,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -5955,6 +6786,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +6802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5997,6 +6831,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6015,6 +6854,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6033,6 +6875,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6051,6 +6896,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -6069,6 +6917,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -6087,6 +6938,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -6105,6 +6959,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -6123,6 +6980,9 @@
       <c r="D8" t="n">
         <v>45</v>
       </c>
+      <c r="E8" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -6141,6 +7001,9 @@
       <c r="D9" t="n">
         <v>45</v>
       </c>
+      <c r="E9" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -6159,6 +7022,9 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
+      <c r="E10" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -6177,6 +7043,9 @@
       <c r="D11" t="n">
         <v>20</v>
       </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -6195,6 +7064,9 @@
       <c r="D12" t="n">
         <v>20</v>
       </c>
+      <c r="E12" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -6212,6 +7084,9 @@
       </c>
       <c r="D13" t="n">
         <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +7100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6254,6 +7129,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6272,6 +7152,9 @@
       <c r="D2" t="n">
         <v>45</v>
       </c>
+      <c r="E2" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6289,6 +7172,9 @@
       </c>
       <c r="D3" t="n">
         <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6302,7 +7188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6331,6 +7217,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6349,6 +7240,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6367,6 +7261,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6385,6 +7282,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -6402,6 +7302,9 @@
       </c>
       <c r="D5" t="n">
         <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6415,7 +7318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6444,6 +7347,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6462,6 +7370,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6480,6 +7391,9 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6498,6 +7412,9 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -6516,6 +7433,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -6534,6 +7454,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -6551,6 +7474,9 @@
       </c>
       <c r="D7" t="n">
         <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6564,7 +7490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,6 +7519,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6611,6 +7542,9 @@
       <c r="D2" t="n">
         <v>14</v>
       </c>
+      <c r="E2" t="n">
+        <v>92.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6629,6 +7563,9 @@
       <c r="D3" t="n">
         <v>14</v>
       </c>
+      <c r="E3" t="n">
+        <v>57.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6647,6 +7584,9 @@
       <c r="D4" t="n">
         <v>14</v>
       </c>
+      <c r="E4" t="n">
+        <v>85.70999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -6665,6 +7605,9 @@
       <c r="D5" t="n">
         <v>39</v>
       </c>
+      <c r="E5" t="n">
+        <v>23.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -6682,6 +7625,9 @@
       </c>
       <c r="D6" t="n">
         <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6695,7 +7641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6724,6 +7670,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6742,6 +7693,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6760,6 +7714,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6777,6 +7734,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6790,7 +7750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6819,6 +7779,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6837,6 +7802,9 @@
       <c r="D2" t="n">
         <v>9</v>
       </c>
+      <c r="E2" t="n">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6855,6 +7823,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -6873,6 +7844,9 @@
       <c r="D4" t="n">
         <v>9</v>
       </c>
+      <c r="E4" t="n">
+        <v>55.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -6891,6 +7865,9 @@
       <c r="D5" t="n">
         <v>9</v>
       </c>
+      <c r="E5" t="n">
+        <v>55.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -6908,6 +7885,9 @@
       </c>
       <c r="D6" t="n">
         <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.56</v>
       </c>
     </row>
   </sheetData>
@@ -6921,7 +7901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6950,6 +7930,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -6968,6 +7953,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -6986,6 +7974,9 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7004,6 +7995,9 @@
       <c r="D4" t="n">
         <v>25</v>
       </c>
+      <c r="E4" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7022,6 +8016,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7040,6 +8037,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -7057,6 +8057,9 @@
       </c>
       <c r="D7" t="n">
         <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +8073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7099,6 +8102,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7117,6 +8125,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7135,6 +8146,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7153,6 +8167,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7171,6 +8188,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7188,6 +8208,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +8224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7230,6 +8253,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7248,6 +8276,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7266,6 +8297,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7284,6 +8318,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7302,6 +8339,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7320,6 +8360,9 @@
       <c r="D6" t="n">
         <v>45</v>
       </c>
+      <c r="E6" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -7338,6 +8381,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -7356,6 +8402,9 @@
       <c r="D8" t="n">
         <v>20</v>
       </c>
+      <c r="E8" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -7374,6 +8423,9 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
+      <c r="E9" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -7391,6 +8443,9 @@
       </c>
       <c r="D10" t="n">
         <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +8459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7433,6 +8488,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7451,6 +8511,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7469,6 +8532,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7487,6 +8553,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7505,6 +8574,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7523,6 +8595,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -7541,6 +8616,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -7559,6 +8637,9 @@
       <c r="D8" t="n">
         <v>20</v>
       </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -7577,6 +8658,9 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -7594,6 +8678,9 @@
       </c>
       <c r="D10" t="n">
         <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7607,7 +8694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7636,6 +8723,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7654,6 +8746,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7671,6 +8766,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
       </c>
     </row>
   </sheetData>
@@ -7684,7 +8782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7713,6 +8811,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -7731,6 +8834,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -7749,6 +8855,9 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -7767,6 +8876,9 @@
       <c r="D4" t="n">
         <v>5</v>
       </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -7785,6 +8897,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -7803,6 +8918,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -7821,6 +8939,9 @@
       <c r="D7" t="n">
         <v>10</v>
       </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -7839,6 +8960,9 @@
       <c r="D8" t="n">
         <v>10</v>
       </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -7857,6 +8981,9 @@
       <c r="D9" t="n">
         <v>5</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -7875,6 +9002,9 @@
       <c r="D10" t="n">
         <v>5</v>
       </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -7893,6 +9023,9 @@
       <c r="D11" t="n">
         <v>5</v>
       </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -7911,6 +9044,9 @@
       <c r="D12" t="n">
         <v>5</v>
       </c>
+      <c r="E12" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -7929,6 +9065,9 @@
       <c r="D13" t="n">
         <v>5</v>
       </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -7946,6 +9085,9 @@
       </c>
       <c r="D14" t="n">
         <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7959,7 +9101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7988,6 +9130,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8006,6 +9153,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8024,6 +9174,9 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8042,6 +9195,9 @@
       <c r="D4" t="n">
         <v>5</v>
       </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -8060,6 +9216,9 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -8078,6 +9237,9 @@
       <c r="D6" t="n">
         <v>10</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -8096,6 +9258,9 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -8114,6 +9279,9 @@
       <c r="D8" t="n">
         <v>5</v>
       </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -8131,6 +9299,9 @@
       </c>
       <c r="D9" t="n">
         <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8144,7 +9315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8173,6 +9344,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8191,6 +9367,9 @@
       <c r="D2" t="n">
         <v>4</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8209,6 +9388,9 @@
       <c r="D3" t="n">
         <v>4</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8227,6 +9409,9 @@
       <c r="D4" t="n">
         <v>4</v>
       </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -8245,6 +9430,9 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -8262,6 +9450,9 @@
       </c>
       <c r="D6" t="n">
         <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8275,7 +9466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8304,6 +9495,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8322,6 +9518,9 @@
       <c r="D2" t="n">
         <v>14</v>
       </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8340,6 +9539,9 @@
       <c r="D3" t="n">
         <v>14</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8358,6 +9560,9 @@
       <c r="D4" t="n">
         <v>14</v>
       </c>
+      <c r="E4" t="n">
+        <v>92.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -8376,6 +9581,9 @@
       <c r="D5" t="n">
         <v>14</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -8394,6 +9602,9 @@
       <c r="D6" t="n">
         <v>14</v>
       </c>
+      <c r="E6" t="n">
+        <v>85.70999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -8412,6 +9623,9 @@
       <c r="D7" t="n">
         <v>14</v>
       </c>
+      <c r="E7" t="n">
+        <v>78.56999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -8430,6 +9644,9 @@
       <c r="D8" t="n">
         <v>14</v>
       </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -8448,6 +9665,9 @@
       <c r="D9" t="n">
         <v>45</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -8466,6 +9686,9 @@
       <c r="D10" t="n">
         <v>45</v>
       </c>
+      <c r="E10" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -8484,6 +9707,9 @@
       <c r="D11" t="n">
         <v>45</v>
       </c>
+      <c r="E11" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -8502,6 +9728,9 @@
       <c r="D12" t="n">
         <v>45</v>
       </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -8520,6 +9749,9 @@
       <c r="D13" t="n">
         <v>45</v>
       </c>
+      <c r="E13" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -8538,6 +9770,9 @@
       <c r="D14" t="n">
         <v>14</v>
       </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -8556,6 +9791,9 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -8573,6 +9811,9 @@
       </c>
       <c r="D16" t="n">
         <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>78.56999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8586,7 +9827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8615,6 +9856,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8633,6 +9879,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8651,6 +9900,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8669,6 +9921,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -8687,6 +9942,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -8705,6 +9963,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -8723,6 +9984,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -8740,6 +10004,9 @@
       </c>
       <c r="D8" t="n">
         <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8753,7 +10020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8782,6 +10049,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8800,6 +10072,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8818,6 +10093,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>51.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8835,6 +10113,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -8848,7 +10129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8877,6 +10158,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -8895,6 +10181,9 @@
       <c r="D2" t="n">
         <v>19</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -8913,6 +10202,9 @@
       <c r="D3" t="n">
         <v>19</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -8931,6 +10223,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -8949,6 +10244,9 @@
       <c r="D5" t="n">
         <v>19</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -8967,6 +10265,9 @@
       <c r="D6" t="n">
         <v>19</v>
       </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -8984,6 +10285,9 @@
       </c>
       <c r="D7" t="n">
         <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>78.95</v>
       </c>
     </row>
   </sheetData>
@@ -8997,7 +10301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9026,6 +10330,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9043,6 +10352,9 @@
       </c>
       <c r="D2" t="n">
         <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9056,7 +10368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9085,6 +10397,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9103,6 +10420,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9121,6 +10441,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -9138,6 +10461,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9151,7 +10477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9180,6 +10506,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9198,6 +10529,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9215,6 +10549,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.89</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +10565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9257,6 +10594,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9275,6 +10617,9 @@
       <c r="D2" t="n">
         <v>15</v>
       </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9293,6 +10638,9 @@
       <c r="D3" t="n">
         <v>15</v>
       </c>
+      <c r="E3" t="n">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -9311,6 +10659,9 @@
       <c r="D4" t="n">
         <v>15</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -9329,6 +10680,9 @@
       <c r="D5" t="n">
         <v>15</v>
       </c>
+      <c r="E5" t="n">
+        <v>93.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -9347,6 +10701,9 @@
       <c r="D6" t="n">
         <v>15</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -9365,6 +10722,9 @@
       <c r="D7" t="n">
         <v>15</v>
       </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -9383,6 +10743,9 @@
       <c r="D8" t="n">
         <v>15</v>
       </c>
+      <c r="E8" t="n">
+        <v>93.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -9401,6 +10764,9 @@
       <c r="D9" t="n">
         <v>15</v>
       </c>
+      <c r="E9" t="n">
+        <v>53.33</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -9419,6 +10785,9 @@
       <c r="D10" t="n">
         <v>45</v>
       </c>
+      <c r="E10" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -9437,6 +10806,9 @@
       <c r="D11" t="n">
         <v>45</v>
       </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -9455,6 +10827,9 @@
       <c r="D12" t="n">
         <v>15</v>
       </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -9473,6 +10848,9 @@
       <c r="D13" t="n">
         <v>15</v>
       </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -9491,6 +10869,9 @@
       <c r="D14" t="n">
         <v>15</v>
       </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -9508,6 +10889,9 @@
       </c>
       <c r="D15" t="n">
         <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86.67</v>
       </c>
     </row>
   </sheetData>
@@ -9521,7 +10905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9550,6 +10934,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9568,6 +10957,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9586,6 +10978,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -9604,6 +10999,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -9622,6 +11020,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -9639,6 +11040,9 @@
       </c>
       <c r="D6" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9652,7 +11056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9681,6 +11085,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9699,6 +11108,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9716,6 +11128,9 @@
       </c>
       <c r="D3" t="n">
         <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75.56</v>
       </c>
     </row>
   </sheetData>
@@ -9729,7 +11144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9758,6 +11173,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -9776,6 +11196,9 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -9794,6 +11217,9 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -9812,6 +11238,9 @@
       <c r="D4" t="n">
         <v>5</v>
       </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -9830,6 +11259,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -9848,6 +11280,9 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -9866,6 +11301,9 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -9884,6 +11322,9 @@
       <c r="D8" t="n">
         <v>5</v>
       </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -9902,6 +11343,9 @@
       <c r="D9" t="n">
         <v>5</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -9920,6 +11364,9 @@
       <c r="D10" t="n">
         <v>5</v>
       </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -9938,6 +11385,9 @@
       <c r="D11" t="n">
         <v>5</v>
       </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -9956,6 +11406,9 @@
       <c r="D12" t="n">
         <v>5</v>
       </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -9973,6 +11426,9 @@
       </c>
       <c r="D13" t="n">
         <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -9986,7 +11442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10015,6 +11471,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10033,6 +11494,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10051,6 +11515,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10069,6 +11536,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -10087,6 +11557,9 @@
       <c r="D5" t="n">
         <v>45</v>
       </c>
+      <c r="E5" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -10105,6 +11578,9 @@
       <c r="D6" t="n">
         <v>45</v>
       </c>
+      <c r="E6" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -10123,6 +11599,9 @@
       <c r="D7" t="n">
         <v>45</v>
       </c>
+      <c r="E7" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -10141,6 +11620,9 @@
       <c r="D8" t="n">
         <v>20</v>
       </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -10159,6 +11641,9 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -10177,6 +11662,9 @@
       <c r="D10" t="n">
         <v>20</v>
       </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -10194,6 +11682,9 @@
       </c>
       <c r="D11" t="n">
         <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10207,7 +11698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10236,6 +11727,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10254,6 +11750,9 @@
       <c r="D2" t="n">
         <v>19</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10272,6 +11771,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10290,6 +11792,9 @@
       <c r="D4" t="n">
         <v>19</v>
       </c>
+      <c r="E4" t="n">
+        <v>73.68000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -10307,6 +11812,9 @@
       </c>
       <c r="D5" t="n">
         <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73.68000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10320,7 +11828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10349,6 +11857,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10367,6 +11880,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10385,6 +11901,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10403,6 +11922,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -10421,6 +11943,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -10439,6 +11964,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -10456,6 +11984,9 @@
       </c>
       <c r="D7" t="n">
         <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10469,7 +12000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10498,6 +12029,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10515,6 +12051,9 @@
       </c>
       <c r="D2" t="n">
         <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10528,7 +12067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,6 +12096,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10575,6 +12119,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10593,6 +12140,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10611,6 +12161,9 @@
       <c r="D4" t="n">
         <v>45</v>
       </c>
+      <c r="E4" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -10629,6 +12182,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -10647,6 +12203,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -10665,6 +12224,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -10682,6 +12244,9 @@
       </c>
       <c r="D8" t="n">
         <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10695,7 +12260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10724,6 +12289,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10742,6 +12312,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10760,6 +12333,9 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10778,6 +12354,9 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -10796,6 +12375,9 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -10814,6 +12396,9 @@
       <c r="D6" t="n">
         <v>20</v>
       </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -10832,6 +12417,9 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -10850,6 +12438,9 @@
       <c r="D8" t="n">
         <v>20</v>
       </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -10868,6 +12459,9 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -10885,6 +12479,9 @@
       </c>
       <c r="D10" t="n">
         <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10898,7 +12495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10927,6 +12524,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -10945,6 +12547,9 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -10963,6 +12568,9 @@
       <c r="D3" t="n">
         <v>45</v>
       </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -10980,6 +12588,9 @@
       </c>
       <c r="D4" t="n">
         <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10993,7 +12604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11022,6 +12633,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -11040,6 +12656,9 @@
       <c r="D2" t="n">
         <v>15</v>
       </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -11058,6 +12677,9 @@
       <c r="D3" t="n">
         <v>35</v>
       </c>
+      <c r="E3" t="n">
+        <v>74.29000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -11076,6 +12698,9 @@
       <c r="D4" t="n">
         <v>15</v>
       </c>
+      <c r="E4" t="n">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -11093,6 +12718,9 @@
       </c>
       <c r="D5" t="n">
         <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66.67</v>
       </c>
     </row>
   </sheetData>
@@ -11106,7 +12734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11135,6 +12763,11 @@
           <t>Column Length</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -11153,6 +12786,9 @@
       <c r="D2" t="n">
         <v>15</v>
       </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -11171,6 +12807,9 @@
       <c r="D3" t="n">
         <v>15</v>
       </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -11189,6 +12828,9 @@
       <c r="D4" t="n">
         <v>15</v>
       </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -11207,6 +12849,9 @@
       <c r="D5" t="n">
         <v>15</v>
       </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -11225,6 +12870,9 @@
       <c r="D6" t="n">
         <v>15</v>
       </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -11243,6 +12891,9 @@
       <c r="D7" t="n">
         <v>15</v>
       </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -11261,6 +12912,9 @@
       <c r="D8" t="n">
         <v>15</v>
       </c>
+      <c r="E8" t="n">
+        <v>53.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -11279,6 +12933,9 @@
       <c r="D9" t="n">
         <v>15</v>
       </c>
+      <c r="E9" t="n">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -11297,6 +12954,9 @@
       <c r="D10" t="n">
         <v>45</v>
       </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -11315,6 +12975,9 @@
       <c r="D11" t="n">
         <v>45</v>
       </c>
+      <c r="E11" t="n">
+        <v>24.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -11333,6 +12996,9 @@
       <c r="D12" t="n">
         <v>45</v>
       </c>
+      <c r="E12" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -11351,6 +13017,9 @@
       <c r="D13" t="n">
         <v>15</v>
       </c>
+      <c r="E13" t="n">
+        <v>53.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -11369,6 +13038,9 @@
       <c r="D14" t="n">
         <v>15</v>
       </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -11387,6 +13059,9 @@
       <c r="D15" t="n">
         <v>15</v>
       </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -11404,6 +13079,9 @@
       </c>
       <c r="D16" t="n">
         <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>86.67</v>
       </c>
     </row>
   </sheetData>
